--- a/Templates/INPUT TEMPLATE.xlsx
+++ b/Templates/INPUT TEMPLATE.xlsx
@@ -5,22 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Documents\Powerlifting\CPA\CPA Material Generator\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CPA Material Generator\Lifting Cast\CPA-Material-Generator\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5720CE-47C8-4268-A07A-38CBF1AF8C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF0FC4AF-AE67-4DFD-9F31-A096580E3373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35115" yWindow="1845" windowWidth="31980" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-225" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>First name</t>
   </si>
@@ -28,9 +39,6 @@
     <t>Last name</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -52,10 +60,19 @@
     <t>Association</t>
   </si>
   <si>
-    <t>Instagram</t>
-  </si>
-  <si>
-    <t>Raw or Equipped</t>
+    <t>3 Lift or Bench Only</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Emergency Contact (NAME)</t>
+  </si>
+  <si>
+    <t>Emergency Contact Number</t>
+  </si>
+  <si>
+    <t>Raw Or Equipped</t>
   </si>
 </sst>
 </file>
@@ -539,12 +556,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -900,40 +914,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A2" sqref="A2:N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="225.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -942,69 +958,73 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
       <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H3" s="1"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H4" s="1"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
@@ -1055,53 +1075,52 @@
     <row r="32" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" s="1"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="8:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="8:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
@@ -1131,136 +1150,8 @@
     <row r="57" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H100" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>